--- a/biology/Histoire de la zoologie et de la botanique/Pierre_Marie_Arthur_Morelet/Pierre_Marie_Arthur_Morelet.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Pierre_Marie_Arthur_Morelet/Pierre_Marie_Arthur_Morelet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Marie Arthur Morelet, né le 26 août 1809 à Lays (Saône-et-Loire) et mort le 9 octobre 1892 à Velars-sur-Ouche (Côte-d'Or), est un naturaliste français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de Pierre Théodore Morelet, maire de Dijon et de Hortense de Truchis de Lays (1789-1815). Il a épousé Noémie de Folin (sœur de Léopold de Folin), dont il eut deux filles qu'il maria à deux frères, les comtes de Coligny. Il fut maire de Velars-sur-Ouche (1848-1884), et membre de l'Académie de Dijon.
 Membre de la Commission de l'Algérie à laquelle il a principalement participé en réalisant des dessins d'histoire naturelle.
